--- a/第一組宿舍管理系統.xlsx
+++ b/第一組宿舍管理系統.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\team01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="學生資料表"/>
-    <sheet r:id="rId2" sheetId="2" name="學生表格(students)"/>
-    <sheet r:id="rId3" sheetId="3" name="床位資料表"/>
-    <sheet r:id="rId4" sheetId="4" name="床位表格(beds)"/>
-    <sheet r:id="rId5" sheetId="5" name="宿舍資料表"/>
-    <sheet r:id="rId6" sheetId="6" name="宿舍表格(dormitories)"/>
-    <sheet r:id="rId7" sheetId="7" name="學生床位資料表"/>
-    <sheet r:id="rId8" sheetId="8" name="學生床位資料表(sb_records)"/>
-    <sheet r:id="rId9" sheetId="9" name="外宿申請表"/>
-    <sheet r:id="rId10" sheetId="10" name="外宿表格(leaves)"/>
-    <sheet r:id="rId11" sheetId="11" name="長期晚歸申請表"/>
-    <sheet r:id="rId12" sheetId="12" name="長期晚歸表格(lates)"/>
-    <sheet r:id="rId13" sheetId="13" name="點名資料表"/>
-    <sheet r:id="rId14" sheetId="14" name="點名表格(rollcalls)"/>
+    <sheet name="學生資料表" sheetId="1" r:id="rId1"/>
+    <sheet name="學生表格(students)" sheetId="2" r:id="rId2"/>
+    <sheet name="床位資料表" sheetId="3" r:id="rId3"/>
+    <sheet name="床位表格(beds)" sheetId="4" r:id="rId4"/>
+    <sheet name="宿舍資料表" sheetId="5" r:id="rId5"/>
+    <sheet name="宿舍表格(dormitories)" sheetId="6" r:id="rId6"/>
+    <sheet name="學生床位資料表" sheetId="7" r:id="rId7"/>
+    <sheet name="學生床位資料表(sb_records)" sheetId="8" r:id="rId8"/>
+    <sheet name="外宿申請表" sheetId="9" r:id="rId9"/>
+    <sheet name="外宿表格(leaves)" sheetId="10" r:id="rId10"/>
+    <sheet name="長期晚歸申請表" sheetId="11" r:id="rId11"/>
+    <sheet name="長期晚歸表格(lates)" sheetId="12" r:id="rId12"/>
+    <sheet name="點名資料表" sheetId="13" r:id="rId13"/>
+    <sheet name="點名表格(rollcalls)" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -299,9 +304,6 @@
     <t>學生編號(外鍵)</t>
   </si>
   <si>
-    <r>
-      <t/>
-    </r>
     <r>
       <rPr>
         <b/>
@@ -638,15 +640,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d"/>
-  </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -709,6 +708,13 @@
       <name val="Roboto"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -719,12 +725,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffc000"/>
+        <fgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffffff"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -753,16 +759,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,7 +794,7 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -819,145 +825,134 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="44">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="20" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="20" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="20" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -968,10 +963,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1009,71 +1004,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1101,7 +1096,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1124,11 +1119,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1137,13 +1132,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1153,7 +1148,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1162,7 +1157,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1171,7 +1166,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1179,10 +1174,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1253,663 +1248,673 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" style="43" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="33.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="6.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="6.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="6.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="11" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A1" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A2" s="15">
+        <f t="shared" ref="A2:A11" si="0">ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="34"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B3" s="18" t="s">
+      <c r="J2" s="17"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="31"/>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A3" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B4" s="18" t="s">
+      <c r="J3" s="17"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+    </row>
+    <row r="4" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A4" s="15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B5" s="18" t="s">
+      <c r="J4" s="17"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+    </row>
+    <row r="5" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A5" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B6" s="18" t="s">
+      <c r="J5" s="17"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A6" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B7" s="18" t="s">
+      <c r="J6" s="17"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+    </row>
+    <row r="7" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A7" s="15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B8" s="18" t="s">
+      <c r="J7" s="17"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+    </row>
+    <row r="8" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A8" s="15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B9" s="18" t="s">
+      <c r="J8" s="17"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+    </row>
+    <row r="9" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A9" s="15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B10" s="18" t="s">
+      <c r="J9" s="17"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+    </row>
+    <row r="10" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A10" s="15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B11" s="18" t="s">
+      <c r="J10" s="17"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+    </row>
+    <row r="11" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A11" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="41"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="41"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="41"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="41"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="41"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="41"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="41"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="41"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="41"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="41"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="41"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="41"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="41"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="41"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="41"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="41"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="41"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="41"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="41"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="41"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+    </row>
+    <row r="12" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A12" s="38"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+    </row>
+    <row r="13" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A13" s="38"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+    </row>
+    <row r="14" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A14" s="38"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+    </row>
+    <row r="15" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A15" s="38"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+    </row>
+    <row r="16" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A16" s="38"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+    </row>
+    <row r="17" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A17" s="38"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+    </row>
+    <row r="18" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A18" s="38"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+    </row>
+    <row r="19" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A19" s="38"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+    </row>
+    <row r="20" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A20" s="38"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+    </row>
+    <row r="21" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A21" s="38"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+    </row>
+    <row r="22" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A22" s="38"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+    </row>
+    <row r="23" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A23" s="38"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+    </row>
+    <row r="24" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A24" s="38"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+    </row>
+    <row r="25" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A25" s="38"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+    </row>
+    <row r="26" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A26" s="38"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+    </row>
+    <row r="27" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A27" s="38"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+    </row>
+    <row r="28" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A28" s="38"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+    </row>
+    <row r="29" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A29" s="38"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+    </row>
+    <row r="30" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A30" s="38"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+    </row>
+    <row r="31" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A31" s="38"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1921,19 +1926,21 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" style="9" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1953,7 +1960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1973,7 +1980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1991,7 +1998,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>71</v>
       </c>
@@ -2007,7 +2014,7 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>72</v>
       </c>
@@ -2023,7 +2030,7 @@
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>73</v>
       </c>
@@ -2039,7 +2046,7 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>51</v>
       </c>
@@ -2055,8 +2062,8 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A8" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2071,7 +2078,7 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:6" ht="18.75" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>25</v>
       </c>
@@ -2087,7 +2094,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:6" ht="18.75" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
@@ -2104,6 +2111,7 @@
       <c r="F10" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2115,155 +2123,155 @@
   </sheetPr>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" style="20" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="20" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="30.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="26" width="24.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="10" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="10" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="10" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="10" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="16">
+    <row r="2" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A2" s="15">
         <f>ROW()-1</f>
-      </c>
-      <c r="B2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
         <v>6</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="22">
         <v>1.9791666666666665</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="16">
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+    </row>
+    <row r="3" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A3" s="15">
         <f>ROW()-1</f>
-      </c>
-      <c r="B3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15">
         <v>7</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2275,19 +2283,21 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" style="9" width="22.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="22.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2307,7 +2317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2327,7 +2337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -2345,7 +2355,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
@@ -2361,7 +2371,7 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -2377,7 +2387,7 @@
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -2393,7 +2403,7 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
@@ -2409,7 +2419,7 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:6" ht="18.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>40</v>
       </c>
@@ -2425,7 +2435,7 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:6" ht="18.75" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>42</v>
       </c>
@@ -2441,7 +2451,7 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:6" ht="18.75" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
@@ -2457,7 +2467,7 @@
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:6" ht="18.75" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>47</v>
       </c>
@@ -2473,7 +2483,7 @@
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:6" ht="18.75" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>49</v>
       </c>
@@ -2489,7 +2499,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:6" ht="18.75" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>51</v>
       </c>
@@ -2505,8 +2515,8 @@
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A14" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2521,8 +2531,8 @@
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A15" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2537,8 +2547,8 @@
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A16" s="19" t="s">
         <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -2553,7 +2563,7 @@
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:6" ht="18.75" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
@@ -2569,7 +2579,7 @@
       </c>
       <c r="F17" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:6" ht="18.75" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>28</v>
       </c>
@@ -2586,6 +2596,7 @@
       <c r="F18" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2597,267 +2608,278 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="21" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="20" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="6.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="6.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B2" s="17">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A2" s="15">
+        <f t="shared" ref="A2:A11" si="0">ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="42">
         <v>44847</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B3" s="17">
+      <c r="E2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A3" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="42">
         <v>44847</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>2</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B4" s="17">
+      <c r="E3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A4" s="15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="42">
         <v>44847</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>3</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B5" s="17">
+      <c r="F4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A5" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="42">
         <v>44847</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>4</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B6" s="17">
+      <c r="E5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A6" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="42">
         <v>44847</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>5</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B7" s="17">
+      <c r="E6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A7" s="15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="42">
         <v>44847</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>6</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="18" t="s">
+      <c r="D7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B8" s="17">
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A8" s="15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="42">
         <v>44847</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>7</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B9" s="17">
+      <c r="E8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A9" s="15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="42">
         <v>44847</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>8</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B10" s="17">
+      <c r="E9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A10" s="15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="42">
         <v>44847</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>9</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B11" s="17">
+      <c r="D10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A11" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="42">
         <v>44847</v>
       </c>
-      <c r="C11" s="16">
-        <v>10</v>
-      </c>
-      <c r="D11" s="18" t="s">
+      <c r="C11" s="15">
+        <v>10</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="E11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2869,19 +2891,21 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" style="9" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2901,7 +2925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2921,7 +2945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -2937,7 +2961,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -2955,7 +2979,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -2971,7 +2995,7 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -2987,7 +3011,7 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
@@ -3003,7 +3027,7 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:6" ht="18.75" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>25</v>
       </c>
@@ -3019,7 +3043,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:6" ht="18.75" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -3036,7 +3060,9 @@
       <c r="F9" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3047,19 +3073,21 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" style="9" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="19.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3079,7 +3107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -3099,11 +3127,11 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>126</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -3115,7 +3143,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>127</v>
       </c>
@@ -3131,7 +3159,7 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>129</v>
       </c>
@@ -3147,7 +3175,7 @@
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>130</v>
       </c>
@@ -3163,7 +3191,7 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>131</v>
       </c>
@@ -3179,8 +3207,8 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A8" s="19" t="s">
         <v>133</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -3195,8 +3223,8 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A9" s="19" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -3211,8 +3239,8 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A10" s="19" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -3227,8 +3255,8 @@
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A11" s="19" t="s">
         <v>139</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -3243,7 +3271,7 @@
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:6" ht="18.75" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>25</v>
       </c>
@@ -3259,7 +3287,7 @@
       </c>
       <c r="F12" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:6" ht="18.75" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>28</v>
       </c>
@@ -3276,6 +3304,7 @@
       <c r="F13" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3289,197 +3318,207 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" style="20" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="20" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="10.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.28515625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A1" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A2" s="15">
+        <f t="shared" ref="A2:A11" si="0">ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>2</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B3" s="18" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A3" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>2</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B4" s="18" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A4" s="15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>2</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B5" s="18" t="s">
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A5" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>2</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B6" s="18" t="s">
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A6" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>2</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B7" s="18" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A7" s="15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>2</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B8" s="18" t="s">
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A8" s="15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>4</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B9" s="18" t="s">
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A9" s="15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>4</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B10" s="18" t="s">
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A10" s="15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>4</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B11" s="18" t="s">
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A11" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>4</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3493,17 +3532,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" style="9" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3523,7 +3562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -3543,11 +3582,11 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A3" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>107</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -3559,7 +3598,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>108</v>
       </c>
@@ -3577,7 +3616,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>110</v>
       </c>
@@ -3593,7 +3632,7 @@
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>25</v>
       </c>
@@ -3609,7 +3648,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>28</v>
       </c>
@@ -3626,6 +3665,7 @@
       <c r="F7" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3639,101 +3679,105 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" style="20" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="6.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="35" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.28515625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A1" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="16">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A2" s="15">
         <f>ROW()-1</f>
-      </c>
-      <c r="B2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="16">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A3" s="15">
         <f>ROW()-1</f>
-      </c>
-      <c r="B3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="16">
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A4" s="15">
         <f>ROW()-1</f>
-      </c>
-      <c r="B4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="16">
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A5" s="15">
         <f>ROW()-1</f>
-      </c>
-      <c r="B5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3747,17 +3791,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" style="9" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3777,7 +3821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -3797,11 +3841,11 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>92</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -3813,11 +3857,11 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>94</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -3829,11 +3873,11 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -3845,7 +3889,7 @@
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>25</v>
       </c>
@@ -3861,7 +3905,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>28</v>
       </c>
@@ -3878,6 +3922,7 @@
       <c r="F7" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3891,231 +3936,241 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" style="20" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="20" width="6.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="20" width="6.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="20" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="20" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="16">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A2" s="15">
+        <f t="shared" ref="A2:A11" si="0">ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>110</v>
+      </c>
+      <c r="C2" s="15">
+        <v>2</v>
+      </c>
+      <c r="D2" s="15">
+        <v>3</v>
+      </c>
+      <c r="E2" s="15">
+        <v>1</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A3" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="15">
+        <v>110</v>
+      </c>
+      <c r="C3" s="15">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15">
+        <v>4</v>
+      </c>
+      <c r="E3" s="15">
+        <v>2</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A4" s="15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="15">
+        <v>110</v>
+      </c>
+      <c r="C4" s="15">
+        <v>2</v>
+      </c>
+      <c r="D4" s="15">
+        <v>5</v>
+      </c>
+      <c r="E4" s="15">
+        <v>3</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A5" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="15">
+        <v>110</v>
+      </c>
+      <c r="C5" s="15">
+        <v>2</v>
+      </c>
+      <c r="D5" s="15">
+        <v>6</v>
+      </c>
+      <c r="E5" s="15">
+        <v>8</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A6" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="15">
+        <v>110</v>
+      </c>
+      <c r="C6" s="15">
+        <v>2</v>
+      </c>
+      <c r="D6" s="15">
+        <v>7</v>
+      </c>
+      <c r="E6" s="15">
+        <v>4</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A7" s="15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="15">
+        <v>111</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15">
+        <v>7</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A8" s="15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="15">
+        <v>111</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15">
+        <v>2</v>
+      </c>
+      <c r="E8" s="15">
+        <v>10</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A9" s="15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="15">
+        <v>111</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15">
+        <v>8</v>
+      </c>
+      <c r="E9" s="15">
+        <v>9</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A10" s="15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="15">
+        <v>111</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15">
+        <v>9</v>
+      </c>
+      <c r="E10" s="15">
+        <v>5</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A11" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="15">
+        <v>111</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15">
         <f>ROW()-1</f>
-      </c>
-      <c r="B2" s="16">
-        <v>110</v>
-      </c>
-      <c r="C2" s="16">
-        <v>2</v>
-      </c>
-      <c r="D2" s="16">
-        <v>3</v>
-      </c>
-      <c r="E2" s="16">
-        <v>1</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B3" s="16">
-        <v>110</v>
-      </c>
-      <c r="C3" s="16">
-        <v>2</v>
-      </c>
-      <c r="D3" s="16">
-        <v>4</v>
-      </c>
-      <c r="E3" s="16">
-        <v>2</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B4" s="16">
-        <v>110</v>
-      </c>
-      <c r="C4" s="16">
-        <v>2</v>
-      </c>
-      <c r="D4" s="16">
-        <v>5</v>
-      </c>
-      <c r="E4" s="16">
-        <v>3</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B5" s="16">
-        <v>110</v>
-      </c>
-      <c r="C5" s="16">
-        <v>2</v>
-      </c>
-      <c r="D5" s="16">
+        <v>10</v>
+      </c>
+      <c r="E11" s="15">
         <v>6</v>
       </c>
-      <c r="E5" s="16">
-        <v>8</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B6" s="16">
-        <v>110</v>
-      </c>
-      <c r="C6" s="16">
-        <v>2</v>
-      </c>
-      <c r="D6" s="16">
-        <v>7</v>
-      </c>
-      <c r="E6" s="16">
-        <v>4</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B7" s="16">
-        <v>111</v>
-      </c>
-      <c r="C7" s="16">
-        <v>1</v>
-      </c>
-      <c r="D7" s="16">
-        <v>1</v>
-      </c>
-      <c r="E7" s="16">
-        <v>7</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B8" s="16">
-        <v>111</v>
-      </c>
-      <c r="C8" s="16">
-        <v>1</v>
-      </c>
-      <c r="D8" s="16">
-        <v>2</v>
-      </c>
-      <c r="E8" s="16">
-        <v>10</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B9" s="16">
-        <v>111</v>
-      </c>
-      <c r="C9" s="16">
-        <v>1</v>
-      </c>
-      <c r="D9" s="16">
-        <v>8</v>
-      </c>
-      <c r="E9" s="16">
-        <v>9</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B10" s="16">
-        <v>111</v>
-      </c>
-      <c r="C10" s="16">
-        <v>1</v>
-      </c>
-      <c r="D10" s="16">
-        <v>9</v>
-      </c>
-      <c r="E10" s="16">
-        <v>5</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="B11" s="16">
-        <v>111</v>
-      </c>
-      <c r="C11" s="16">
-        <v>1</v>
-      </c>
-      <c r="D11" s="16">
-        <f>ROW()-1</f>
-      </c>
-      <c r="E11" s="16">
-        <v>6</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4127,19 +4182,19 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" style="9" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:6" ht="20.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4159,7 +4214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+    <row r="2" spans="1:6" ht="20.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -4179,7 +4234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+    <row r="3" spans="1:6" ht="20.25" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>79</v>
       </c>
@@ -4195,7 +4250,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+    <row r="4" spans="1:6" ht="20.25" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>82</v>
       </c>
@@ -4211,7 +4266,7 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+    <row r="5" spans="1:6" ht="20.25" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>85</v>
       </c>
@@ -4229,7 +4284,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+    <row r="6" spans="1:6" ht="20.25" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>87</v>
       </c>
@@ -4247,7 +4302,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+    <row r="7" spans="1:6" ht="20.25" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
@@ -4263,7 +4318,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
+    <row r="8" spans="1:6" ht="21" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
@@ -4280,6 +4335,7 @@
       <c r="F8" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4291,93 +4347,96 @@
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" style="20" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="20" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="23.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="23.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="16">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A2" s="15">
         <f>ROW()-1</f>
-      </c>
-      <c r="B2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
         <v>6</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="16">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A3" s="15">
         <f>ROW()-1</f>
-      </c>
-      <c r="B3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/第一組宿舍管理系統.xlsx
+++ b/第一組宿舍管理系統.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="學生資料表" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>DATETIME</t>
   </si>
   <si>
     <t>學生床位</t>
@@ -635,6 +632,10 @@
   </si>
   <si>
     <t>王零九</t>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1248,7 +1249,7 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1267,40 +1268,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="F1" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="27" t="s">
-        <v>131</v>
-      </c>
       <c r="G1" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
@@ -1309,28 +1310,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>147</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>148</v>
       </c>
       <c r="J2" s="17"/>
       <c r="K2" s="37"/>
@@ -1342,28 +1343,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>152</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>153</v>
       </c>
       <c r="J3" s="17"/>
       <c r="K3" s="31"/>
@@ -1375,28 +1376,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E4" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F4" s="16" t="s">
+      <c r="G4" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>158</v>
-      </c>
       <c r="I4" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J4" s="17"/>
       <c r="K4" s="31"/>
@@ -1408,28 +1409,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>162</v>
-      </c>
       <c r="I5" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="31"/>
@@ -1441,28 +1442,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" s="16" t="s">
+      <c r="G6" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>166</v>
-      </c>
       <c r="I6" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="31"/>
@@ -1474,28 +1475,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="E7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" s="16" t="s">
+      <c r="G7" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>171</v>
-      </c>
       <c r="I7" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="31"/>
@@ -1507,28 +1508,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D8" s="16" t="s">
+      <c r="E8" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="16" t="s">
+      <c r="G8" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>175</v>
-      </c>
       <c r="I8" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J8" s="17"/>
       <c r="K8" s="31"/>
@@ -1540,28 +1541,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="16" t="s">
+      <c r="E9" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F9" s="16" t="s">
+      <c r="G9" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>179</v>
-      </c>
       <c r="I9" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="31"/>
@@ -1573,28 +1574,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="16" t="s">
+      <c r="E10" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="16" t="s">
+      <c r="G10" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>183</v>
-      </c>
       <c r="I10" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="34"/>
@@ -1606,28 +1607,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="16" t="s">
+      <c r="E11" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F11" s="16" t="s">
+      <c r="G11" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>187</v>
-      </c>
       <c r="I11" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J11" s="17"/>
       <c r="K11" s="31"/>
@@ -1927,7 +1928,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1982,10 +1983,10 @@
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -2000,13 +2001,13 @@
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
@@ -2016,13 +2017,13 @@
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
@@ -2032,13 +2033,13 @@
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
@@ -2048,13 +2049,13 @@
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1">
       <c r="A7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
@@ -2064,13 +2065,13 @@
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1">
       <c r="A8" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
@@ -2080,33 +2081,33 @@
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1">
       <c r="A9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="18.75" customHeight="1">
       <c r="A10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="8"/>
     </row>
@@ -2123,7 +2124,7 @@
   </sheetPr>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -2145,55 +2146,55 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>31</v>
-      </c>
       <c r="D1" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
@@ -2205,22 +2206,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>65</v>
       </c>
       <c r="I2" s="22">
         <v>1.9791666666666665</v>
@@ -2243,22 +2244,22 @@
         <v>7</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>69</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>70</v>
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="17"/>
@@ -2284,7 +2285,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2339,10 +2340,10 @@
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -2357,13 +2358,13 @@
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
@@ -2373,13 +2374,13 @@
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
@@ -2389,13 +2390,13 @@
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
@@ -2405,13 +2406,13 @@
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1">
       <c r="A7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
@@ -2421,13 +2422,13 @@
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1">
       <c r="A8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
@@ -2437,13 +2438,13 @@
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1">
       <c r="A9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
@@ -2453,13 +2454,13 @@
     </row>
     <row r="10" spans="1:6" ht="18.75" customHeight="1">
       <c r="A10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
@@ -2469,13 +2470,13 @@
     </row>
     <row r="11" spans="1:6" ht="18.75" customHeight="1">
       <c r="A11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="C11" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
@@ -2485,13 +2486,13 @@
     </row>
     <row r="12" spans="1:6" ht="18.75" customHeight="1">
       <c r="A12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="C12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
@@ -2501,13 +2502,13 @@
     </row>
     <row r="13" spans="1:6" ht="18.75" customHeight="1">
       <c r="A13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="C13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="6" t="s">
@@ -2517,13 +2518,13 @@
     </row>
     <row r="14" spans="1:6" ht="18.75" customHeight="1">
       <c r="A14" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="C14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
@@ -2533,13 +2534,13 @@
     </row>
     <row r="15" spans="1:6" ht="18.75" customHeight="1">
       <c r="A15" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="C15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="6" t="s">
@@ -2549,13 +2550,13 @@
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1">
       <c r="A16" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="C16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="6" t="s">
@@ -2565,33 +2566,33 @@
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1">
       <c r="A17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1">
       <c r="A18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -2630,22 +2631,22 @@
         <v>12</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
@@ -2660,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>10</v>
@@ -2683,7 +2684,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>10</v>
@@ -2709,7 +2710,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>10</v>
@@ -2729,7 +2730,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>10</v>
@@ -2752,7 +2753,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>10</v>
@@ -2781,7 +2782,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -2798,7 +2799,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>10</v>
@@ -2821,7 +2822,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>10</v>
@@ -2867,7 +2868,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>10</v>
@@ -2891,8 +2892,8 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2953,7 +2954,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6" t="s">
@@ -2963,10 +2964,10 @@
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -2981,81 +2982,81 @@
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1">
       <c r="A7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1">
       <c r="A8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1">
       <c r="A9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="8"/>
     </row>
@@ -3129,13 +3130,13 @@
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>126</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="6" t="s">
@@ -3145,13 +3146,13 @@
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
@@ -3161,13 +3162,13 @@
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
@@ -3177,61 +3178,61 @@
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1">
       <c r="A7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>132</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1">
       <c r="A8" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>134</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1">
       <c r="A9" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
@@ -3241,13 +3242,13 @@
     </row>
     <row r="10" spans="1:6" ht="18.75" customHeight="1">
       <c r="A10" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="C10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
@@ -3257,49 +3258,49 @@
     </row>
     <row r="11" spans="1:6" ht="18.75" customHeight="1">
       <c r="A11" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="C11" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="18.75" customHeight="1">
       <c r="A12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" customHeight="1">
       <c r="A13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -3329,22 +3330,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1">
@@ -3353,13 +3354,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="15">
         <v>2</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
@@ -3370,13 +3371,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="15">
         <v>2</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
@@ -3387,13 +3388,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="15">
         <v>2</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" s="31"/>
       <c r="F4" s="31"/>
@@ -3404,13 +3405,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="15">
         <v>2</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
@@ -3421,13 +3422,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="15">
         <v>2</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="31"/>
@@ -3438,13 +3439,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="15">
         <v>2</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
@@ -3455,13 +3456,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="15">
         <v>4</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
@@ -3472,13 +3473,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="15">
         <v>4</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
@@ -3489,13 +3490,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="15">
         <v>4</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
@@ -3506,13 +3507,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" s="15">
         <v>4</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
@@ -3584,13 +3585,13 @@
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="6" t="s">
@@ -3600,10 +3601,10 @@
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -3618,13 +3619,13 @@
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
@@ -3634,33 +3635,33 @@
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1">
       <c r="A7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -3690,22 +3691,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1">
@@ -3714,13 +3715,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="30" t="s">
         <v>97</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>98</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
@@ -3731,13 +3732,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="30" t="s">
         <v>100</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>101</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
@@ -3748,13 +3749,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>102</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>103</v>
       </c>
       <c r="E4" s="31"/>
       <c r="F4" s="31"/>
@@ -3765,13 +3766,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>104</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>105</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
@@ -3843,13 +3844,13 @@
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>92</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="6" t="s">
@@ -3859,13 +3860,13 @@
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>94</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
@@ -3875,13 +3876,13 @@
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
@@ -3891,33 +3892,33 @@
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1">
       <c r="A7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -3947,25 +3948,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="26" t="s">
-        <v>90</v>
-      </c>
       <c r="F1" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1">
@@ -4236,13 +4237,13 @@
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="6" t="s">
@@ -4252,13 +4253,13 @@
     </row>
     <row r="4" spans="1:6" ht="20.25" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
@@ -4268,10 +4269,10 @@
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -4286,10 +4287,10 @@
     </row>
     <row r="6" spans="1:6" ht="20.25" customHeight="1">
       <c r="A6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
@@ -4304,33 +4305,33 @@
     </row>
     <row r="7" spans="1:6" ht="20.25" customHeight="1">
       <c r="A7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1">
       <c r="A8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -4364,31 +4365,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>73</v>
-      </c>
       <c r="F1" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1">
@@ -4400,13 +4401,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>75</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
@@ -4422,13 +4423,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>78</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>

--- a/第一組宿舍管理系統.xlsx
+++ b/第一組宿舍管理系統.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LHU\專題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LHU\1111Class\wamp64\www\team01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD5F370-BD85-4C58-9758-395C0ED12920}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C5E845-804E-42DB-AFCE-DC2D70B75725}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="學生資料表" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="330">
   <si>
     <t>中文欄位名稱</t>
   </si>
@@ -604,10 +604,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>四樓</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>鄭鐘龍</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -621,10 +617,6 @@
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>樓長的學生編號</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1104,6 +1096,34 @@
   </si>
   <si>
     <t>林零二</t>
+  </si>
+  <si>
+    <t>樓長的學生編號(外鍵)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>負責的樓層</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4F</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4F</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>responsible_floor</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(191)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1216,7 +1236,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1239,8 +1259,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1367,22 +1393,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1544,20 +1559,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1565,6 +1568,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1873,8 +1894,8 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2265,25 +2286,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="C12" s="62" t="s">
-        <v>293</v>
+        <v>245</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>291</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>132</v>
       </c>
       <c r="H12" s="46" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>134</v>
@@ -2298,25 +2319,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>132</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I13" s="18" t="s">
         <v>139</v>
@@ -2331,25 +2352,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>132</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>134</v>
@@ -2364,25 +2385,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>132</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>139</v>
@@ -2397,25 +2418,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>132</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>134</v>
@@ -2430,25 +2451,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>132</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>139</v>
@@ -2463,25 +2484,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>132</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I18" s="18" t="s">
         <v>134</v>
@@ -2496,25 +2517,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>132</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I19" s="18" t="s">
         <v>139</v>
@@ -2529,25 +2550,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>132</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>134</v>
@@ -2562,25 +2583,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>132</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>139</v>
@@ -2595,25 +2616,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>132</v>
       </c>
       <c r="H22" s="46" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I22" s="18" t="s">
         <v>134</v>
@@ -2628,25 +2649,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G23" s="18" t="s">
         <v>132</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I23" s="18" t="s">
         <v>139</v>
@@ -2661,25 +2682,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G24" s="18" t="s">
         <v>132</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I24" s="18" t="s">
         <v>134</v>
@@ -2694,25 +2715,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>132</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I25" s="18" t="s">
         <v>139</v>
@@ -2727,25 +2748,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G26" s="18" t="s">
         <v>132</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I26" s="18" t="s">
         <v>134</v>
@@ -2760,25 +2781,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>132</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I27" s="18" t="s">
         <v>139</v>
@@ -2793,25 +2814,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>132</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I28" s="18" t="s">
         <v>134</v>
@@ -2826,25 +2847,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G29" s="18" t="s">
         <v>132</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I29" s="18" t="s">
         <v>139</v>
@@ -2859,25 +2880,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>132</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I30" s="18" t="s">
         <v>134</v>
@@ -2892,25 +2913,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G31" s="18" t="s">
         <v>132</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I31" s="18" t="s">
         <v>139</v>
@@ -2925,25 +2946,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>132</v>
       </c>
       <c r="H32" s="46" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I32" s="18" t="s">
         <v>134</v>
@@ -2955,25 +2976,25 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E33" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>132</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I33" s="18" t="s">
         <v>139</v>
@@ -2986,25 +3007,25 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E34" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G34" s="18" t="s">
         <v>132</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I34" s="18" t="s">
         <v>134</v>
@@ -3168,16 +3189,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E2:E6"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="16.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
@@ -3275,72 +3296,88 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6" s="57" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="D7" s="67"/>
+      <c r="E7" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="67" t="s">
         <v>183</v>
       </c>
-      <c r="C7" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61" t="s">
+    </row>
+    <row r="8" spans="1:6" s="57" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A8" s="67" t="s">
+        <v>324</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>327</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>328</v>
+      </c>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68" t="s">
+        <v>329</v>
+      </c>
+      <c r="F8" s="67"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A9" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="65"/>
+      <c r="E9" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="60" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="F9" s="65"/>
+    </row>
+    <row r="10" spans="1:6" ht="21" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="4" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" ht="21" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="8"/>
+      <c r="F10" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -3458,7 +3495,7 @@
         <v>174</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
@@ -3476,7 +3513,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1">
@@ -3494,7 +3531,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1">
@@ -3623,7 +3660,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
@@ -3639,7 +3676,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
@@ -3820,7 +3857,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
@@ -3836,7 +3873,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
@@ -3875,7 +3912,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1">
@@ -3931,7 +3968,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>37</v>
@@ -4052,8 +4089,8 @@
   </sheetPr>
   <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4095,13 +4132,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C2" s="16">
         <v>4</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>110</v>
@@ -4115,13 +4152,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C3" s="16">
         <v>4</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>110</v>
@@ -4135,13 +4172,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C4" s="16">
         <v>4</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>110</v>
@@ -4155,13 +4192,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C5" s="16">
         <v>4</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>110</v>
@@ -4175,13 +4212,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C6" s="16">
         <v>4</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>110</v>
@@ -4195,13 +4232,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C7" s="16">
         <v>4</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>110</v>
@@ -4215,13 +4252,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C8" s="16">
         <v>4</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>110</v>
@@ -4235,13 +4272,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C9" s="16">
         <v>4</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>110</v>
@@ -4253,13 +4290,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C10" s="16">
         <v>4</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>110</v>
@@ -4271,13 +4308,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C11" s="16">
         <v>4</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>110</v>
@@ -4289,13 +4326,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C12" s="16">
         <v>4</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>110</v>
@@ -4307,13 +4344,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C13" s="16">
         <v>4</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>110</v>
@@ -4325,13 +4362,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C14" s="16">
         <v>4</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>110</v>
@@ -4343,13 +4380,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C15" s="16">
         <v>4</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>110</v>
@@ -4361,13 +4398,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C16" s="16">
         <v>4</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>110</v>
@@ -4379,13 +4416,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C17" s="16">
         <v>4</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>110</v>
@@ -4397,13 +4434,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C18" s="16">
         <v>4</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>110</v>
@@ -4415,13 +4452,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C19" s="16">
         <v>4</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>110</v>
@@ -4433,13 +4470,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C20" s="16">
         <v>4</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>110</v>
@@ -4451,13 +4488,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C21" s="16">
         <v>4</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>110</v>
@@ -4469,13 +4506,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C22" s="16">
         <v>4</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>110</v>
@@ -4487,13 +4524,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C23" s="16">
         <v>4</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>110</v>
@@ -4505,13 +4542,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C24" s="16">
         <v>4</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>110</v>
@@ -4523,13 +4560,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C25" s="16">
         <v>4</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>110</v>
@@ -4541,13 +4578,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C26" s="16">
         <v>4</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>110</v>
@@ -4559,13 +4596,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C27" s="16">
         <v>4</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>110</v>
@@ -4577,13 +4614,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C28" s="16">
         <v>4</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>110</v>
@@ -4595,13 +4632,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C29" s="16">
         <v>4</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>110</v>
@@ -4613,13 +4650,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C30" s="16">
         <v>4</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>110</v>
@@ -4631,13 +4668,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C31" s="16">
         <v>4</v>
       </c>
       <c r="D31" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>110</v>
@@ -4649,13 +4686,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C32" s="16">
         <v>4</v>
       </c>
       <c r="D32" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>110</v>
@@ -4667,13 +4704,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C33" s="16">
         <v>4</v>
       </c>
       <c r="D33" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E33" s="18" t="s">
         <v>110</v>
@@ -4685,13 +4722,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C34" s="16">
         <v>4</v>
       </c>
       <c r="D34" s="45" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E34" s="18" t="s">
         <v>110</v>
@@ -5176,7 +5213,7 @@
         <v>97</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D3" s="33" t="s">
         <v>98</v>
@@ -5210,7 +5247,7 @@
         <v>101</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>102</v>
@@ -5229,10 +5266,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5242,10 +5279,11 @@
     <col min="4" max="4" width="18.7109375" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="20" customWidth="1"/>
+    <col min="8" max="9" width="11" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>57</v>
       </c>
@@ -5262,16 +5300,19 @@
         <v>88</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="G1" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1">
       <c r="A2" s="16">
         <f t="shared" ref="A2:A37" si="0">ROW()-1</f>
         <v>1</v>
@@ -5289,12 +5330,15 @@
         <v>7</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="G2" s="19"/>
+        <v>179</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>325</v>
+      </c>
       <c r="H2" s="19"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1">
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" customHeight="1">
       <c r="A3" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -5312,10 +5356,11 @@
         <v>9</v>
       </c>
       <c r="F3" s="45"/>
-      <c r="G3" s="19"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="19"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1">
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1">
       <c r="A4" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5333,10 +5378,11 @@
         <v>1</v>
       </c>
       <c r="F4" s="16"/>
-      <c r="G4" s="19"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1">
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" customHeight="1">
       <c r="A5" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5354,10 +5400,11 @@
         <v>2</v>
       </c>
       <c r="F5" s="16"/>
-      <c r="G5" s="19"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="19"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1">
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" customHeight="1">
       <c r="A6" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5375,10 +5422,11 @@
         <v>3</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="19"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1">
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" customHeight="1">
       <c r="A7" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5395,10 +5443,10 @@
       <c r="E7" s="16">
         <v>4</v>
       </c>
-      <c r="G7" s="19"/>
       <c r="H7" s="19"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1">
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" customHeight="1">
       <c r="A8" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5416,10 +5464,11 @@
         <v>5</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="19"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1">
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" customHeight="1">
       <c r="A9" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5437,10 +5486,11 @@
         <v>6</v>
       </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="19"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="19"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1">
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" customHeight="1">
       <c r="A10" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5458,10 +5508,11 @@
         <v>8</v>
       </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="19"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1">
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" customHeight="1">
       <c r="A11" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5479,10 +5530,11 @@
         <v>10</v>
       </c>
       <c r="F11" s="45"/>
-      <c r="G11" s="19"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="19"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5500,7 +5552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5518,7 +5570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5536,7 +5588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5554,7 +5606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5980,7 +6032,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6243,14 +6295,14 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="65" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" style="61" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="6" style="10" bestFit="1" customWidth="1"/>
@@ -6265,7 +6317,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="63" t="s">
-        <v>181</v>
+        <v>323</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>30</v>
@@ -6294,7 +6346,7 @@
       <c r="B2" s="17">
         <v>44847</v>
       </c>
-      <c r="C2" s="64">
+      <c r="C2" s="60">
         <v>1</v>
       </c>
       <c r="D2" s="16">
@@ -6316,7 +6368,7 @@
       <c r="B3" s="17">
         <v>44847</v>
       </c>
-      <c r="C3" s="64">
+      <c r="C3" s="60">
         <v>1</v>
       </c>
       <c r="D3" s="16">
@@ -6338,7 +6390,7 @@
       <c r="B4" s="17">
         <v>44847</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="60">
         <v>1</v>
       </c>
       <c r="D4" s="16">
@@ -6360,7 +6412,7 @@
       <c r="B5" s="17">
         <v>44847</v>
       </c>
-      <c r="C5" s="64">
+      <c r="C5" s="60">
         <v>1</v>
       </c>
       <c r="D5" s="16">
@@ -6382,7 +6434,7 @@
       <c r="B6" s="17">
         <v>44847</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="60">
         <v>1</v>
       </c>
       <c r="D6" s="16">
@@ -6404,7 +6456,7 @@
       <c r="B7" s="17">
         <v>44847</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="60">
         <v>1</v>
       </c>
       <c r="D7" s="16">
@@ -6426,7 +6478,7 @@
       <c r="B8" s="17">
         <v>44847</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="60">
         <v>1</v>
       </c>
       <c r="D8" s="16">
@@ -6448,7 +6500,7 @@
       <c r="B9" s="17">
         <v>44847</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="60">
         <v>1</v>
       </c>
       <c r="D9" s="16">
@@ -6470,7 +6522,7 @@
       <c r="B10" s="17">
         <v>44847</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="60">
         <v>1</v>
       </c>
       <c r="D10" s="16">
@@ -6492,7 +6544,7 @@
       <c r="B11" s="17">
         <v>44847</v>
       </c>
-      <c r="C11" s="64">
+      <c r="C11" s="60">
         <v>1</v>
       </c>
       <c r="D11" s="16">
@@ -6514,7 +6566,7 @@
       <c r="B12" s="17">
         <v>44847</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="60">
         <v>1</v>
       </c>
       <c r="D12" s="16">
@@ -6534,7 +6586,7 @@
       <c r="B13" s="17">
         <v>44847</v>
       </c>
-      <c r="C13" s="64">
+      <c r="C13" s="60">
         <v>1</v>
       </c>
       <c r="D13" s="16">
@@ -6554,7 +6606,7 @@
       <c r="B14" s="17">
         <v>44847</v>
       </c>
-      <c r="C14" s="66">
+      <c r="C14" s="62">
         <v>1</v>
       </c>
       <c r="D14" s="16">
@@ -6574,7 +6626,7 @@
       <c r="B15" s="17">
         <v>44847</v>
       </c>
-      <c r="C15" s="66">
+      <c r="C15" s="62">
         <v>1</v>
       </c>
       <c r="D15" s="16">
@@ -6594,7 +6646,7 @@
       <c r="B16" s="17">
         <v>44847</v>
       </c>
-      <c r="C16" s="66">
+      <c r="C16" s="62">
         <v>1</v>
       </c>
       <c r="D16" s="16">
@@ -6614,7 +6666,7 @@
       <c r="B17" s="17">
         <v>44847</v>
       </c>
-      <c r="C17" s="66">
+      <c r="C17" s="62">
         <v>1</v>
       </c>
       <c r="D17" s="16">
@@ -6634,7 +6686,7 @@
       <c r="B18" s="17">
         <v>44847</v>
       </c>
-      <c r="C18" s="66">
+      <c r="C18" s="62">
         <v>1</v>
       </c>
       <c r="D18" s="16">
@@ -6654,7 +6706,7 @@
       <c r="B19" s="17">
         <v>44847</v>
       </c>
-      <c r="C19" s="66">
+      <c r="C19" s="62">
         <v>1</v>
       </c>
       <c r="D19" s="16">
@@ -6674,7 +6726,7 @@
       <c r="B20" s="17">
         <v>44847</v>
       </c>
-      <c r="C20" s="66">
+      <c r="C20" s="62">
         <v>1</v>
       </c>
       <c r="D20" s="16">
@@ -6694,7 +6746,7 @@
       <c r="B21" s="17">
         <v>44847</v>
       </c>
-      <c r="C21" s="66">
+      <c r="C21" s="62">
         <v>1</v>
       </c>
       <c r="D21" s="16">
@@ -6714,7 +6766,7 @@
       <c r="B22" s="17">
         <v>44847</v>
       </c>
-      <c r="C22" s="66">
+      <c r="C22" s="62">
         <v>1</v>
       </c>
       <c r="D22" s="16">
@@ -6734,7 +6786,7 @@
       <c r="B23" s="17">
         <v>44847</v>
       </c>
-      <c r="C23" s="66">
+      <c r="C23" s="62">
         <v>1</v>
       </c>
       <c r="D23" s="16">
@@ -6754,7 +6806,7 @@
       <c r="B24" s="17">
         <v>44847</v>
       </c>
-      <c r="C24" s="66">
+      <c r="C24" s="62">
         <v>1</v>
       </c>
       <c r="D24" s="16">
@@ -6774,7 +6826,7 @@
       <c r="B25" s="17">
         <v>44847</v>
       </c>
-      <c r="C25" s="66">
+      <c r="C25" s="62">
         <v>1</v>
       </c>
       <c r="D25" s="16">
@@ -6794,7 +6846,7 @@
       <c r="B26" s="17">
         <v>44847</v>
       </c>
-      <c r="C26" s="66">
+      <c r="C26" s="62">
         <v>1</v>
       </c>
       <c r="D26" s="16">
@@ -6814,7 +6866,7 @@
       <c r="B27" s="17">
         <v>44847</v>
       </c>
-      <c r="C27" s="66">
+      <c r="C27" s="62">
         <v>1</v>
       </c>
       <c r="D27" s="16">
@@ -6834,7 +6886,7 @@
       <c r="B28" s="17">
         <v>44847</v>
       </c>
-      <c r="C28" s="66">
+      <c r="C28" s="62">
         <v>1</v>
       </c>
       <c r="D28" s="16">
@@ -6854,7 +6906,7 @@
       <c r="B29" s="17">
         <v>44847</v>
       </c>
-      <c r="C29" s="66">
+      <c r="C29" s="62">
         <v>1</v>
       </c>
       <c r="D29" s="16">
@@ -6874,7 +6926,7 @@
       <c r="B30" s="17">
         <v>44847</v>
       </c>
-      <c r="C30" s="66">
+      <c r="C30" s="62">
         <v>1</v>
       </c>
       <c r="D30" s="16">
@@ -6894,7 +6946,7 @@
       <c r="B31" s="17">
         <v>44847</v>
       </c>
-      <c r="C31" s="66">
+      <c r="C31" s="62">
         <v>1</v>
       </c>
       <c r="D31" s="16">
@@ -6914,7 +6966,7 @@
       <c r="B32" s="17">
         <v>44847</v>
       </c>
-      <c r="C32" s="66">
+      <c r="C32" s="62">
         <v>1</v>
       </c>
       <c r="D32" s="16">
@@ -6934,7 +6986,7 @@
       <c r="B33" s="17">
         <v>44847</v>
       </c>
-      <c r="C33" s="66">
+      <c r="C33" s="62">
         <v>1</v>
       </c>
       <c r="D33" s="16">
@@ -6954,7 +7006,7 @@
       <c r="B34" s="17">
         <v>44847</v>
       </c>
-      <c r="C34" s="66">
+      <c r="C34" s="62">
         <v>1</v>
       </c>
       <c r="D34" s="16">
@@ -6980,7 +7032,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B34"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
